--- a/Documentos/02 Requisitos/009 Especificación detallada Cliente/003 ESP_DET_WRRS_ Modulo de realización de QRS.xlsx
+++ b/Documentos/02 Requisitos/009 Especificación detallada Cliente/003 ESP_DET_WRRS_ Modulo de realización de QRS.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Orden de navegación</t>
   </si>
@@ -63,72 +60,30 @@
     <t>Tipo de campo</t>
   </si>
   <si>
-    <t>Número máximo de dígitos</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos enteros</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos decimales</t>
-  </si>
-  <si>
     <t>Tipo de solicitud</t>
   </si>
   <si>
-    <t>Dropdown button</t>
-  </si>
-  <si>
     <t>Permite al usuario escoger una de las opciones de la lista desplegable correspondiente al tipo de solicitud que desea realizar.</t>
   </si>
   <si>
-    <t>Debe ser seleccionada una opción, los items que componen la lista son: Queja, reclamo y sugerencia. Cuando sea seleccionada una opción se debe mostrar su significado.</t>
-  </si>
-  <si>
-    <t>Solicitud a realizar</t>
-  </si>
-  <si>
     <t>Debe ser seleccionada una opción</t>
   </si>
   <si>
-    <t>Por favor seleccione un tipo de solicitud</t>
-  </si>
-  <si>
-    <t>Seleccione una opción</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Sugerencia</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Mensaje a enviar</t>
   </si>
   <si>
-    <t>Input Text</t>
-  </si>
-  <si>
     <t>Campo destinado para que el usuario escriba el mensaje que desea enviar a la emisora</t>
   </si>
   <si>
-    <t>El campo debe contener minimo 4 palabras y máximo 500 palabras</t>
-  </si>
-  <si>
-    <t>Debe tener al menos 4 palabras y máximo 500 palbras, son aceptados caracteres alfanuméricos</t>
-  </si>
-  <si>
-    <t>Por favor ingrese un texto mayor o igual a 4 palabras y menos de 500 palabras</t>
-  </si>
-  <si>
-    <t>Mensaje ingresado</t>
-  </si>
-  <si>
     <t>Alfanumérico</t>
   </si>
   <si>
@@ -138,19 +93,54 @@
     <t>Button</t>
   </si>
   <si>
-    <t>Boton dedicado para que se realice el envio de la solicitud al sistema del administrador de la emisora</t>
-  </si>
-  <si>
     <t>Debe haberse seleccionado un tipo de solicitud (Queja, reclamo o sugerencia) y el mensaje a emitir debe cumplir las especificaciones</t>
   </si>
   <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>Por favor diligencie correctamente la información solicitada, seleccione un tipo de solicitud y diligencie el mensaje con más o igual a 4 palabras y menos de 500 palabras.</t>
-  </si>
-  <si>
-    <t>Mensaje diligenciado y tipo de solicitud</t>
+    <t>Mat-select</t>
+  </si>
+  <si>
+    <t>Debe ser seleccionada una opción, los items que componen la lista son: Queja, reclamo y sugerencia.</t>
+  </si>
+  <si>
+    <t>De selección</t>
+  </si>
+  <si>
+    <t>Número máximo de caractéres</t>
+  </si>
+  <si>
+    <t>Número mínimo de caractéres</t>
+  </si>
+  <si>
+    <t>Textarea</t>
+  </si>
+  <si>
+    <t>El campo debe contener minimo 40 caractéres y máximo 500 caractéres</t>
+  </si>
+  <si>
+    <t>Debe tener al menos 40 caractéres y máximo 500 carácteres, se aeptará cualquier caractér.</t>
+  </si>
+  <si>
+    <t>Enviar</t>
+  </si>
+  <si>
+    <t>No deben existir errores en los campos.</t>
+  </si>
+  <si>
+    <t>Botón</t>
+  </si>
+  <si>
+    <t>1. Por favor seleccione un tipo de solicitud</t>
+  </si>
+  <si>
+    <t>1. El mensaje es obligatorio. 
+2. Por favor ingrese un mensaje más corto. 
+3. Por favor ingrese un mensaje más largo.</t>
+  </si>
+  <si>
+    <t>1. Por favor diligencie correctamente la información solicitada.</t>
+  </si>
+  <si>
+    <t>Boton dedicado para que se realice el envio de la solicitud al sistema del administrador de la emisora. Cuando el botón sea presionado se debe mostrar un dialogo con el siguiente mensaje: "Mensaje enviado con éxito"</t>
   </si>
 </sst>
 </file>
@@ -256,21 +246,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Módulo de ingreso"/>
-      <sheetName val="Módulo de realización de QRS"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,9 +531,11 @@
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="12" width="11.5546875"/>
     <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,163 +576,151 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N3" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O3" s="5">
-        <v>30</v>
-      </c>
-      <c r="P3" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
